--- a/docs/CareConnect-Condition-1.xlsx
+++ b/docs/CareConnect-Condition-1.xlsx
@@ -4238,7 +4238,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>

--- a/docs/CareConnect-Condition-1.xlsx
+++ b/docs/CareConnect-Condition-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5091" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3594" uniqueCount="473">
   <si>
     <t>Path</t>
   </si>
@@ -519,7 +519,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -1005,79 +1005,6 @@
     <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
-    <t>Condition.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>descriptionId</t>
-  </si>
-  <si>
-    <t>The SNOMED CT Description ID</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.extension.valueId</t>
-  </si>
-  <si>
-    <t>valueId</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>descriptionDisplay</t>
-  </si>
-  <si>
-    <t>The SNOMED CT display for the description ID</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.extension.valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTiming</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
     <t>Condition.code.coding.system</t>
   </si>
   <si>
@@ -1145,33 +1072,6 @@
   </si>
   <si>
     <t>Condition.bodySite.coding.extension</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding.extension.extension.url</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding.extension.extension.valueId</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding.extension.extension.valueString</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Condition.bodySite.coding.system</t>
@@ -1431,33 +1331,6 @@
   </si>
   <si>
     <t>The SNOMED CT Description ID for the display.</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.extension.extension.url</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.extension.extension.valueId</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.extension.extension.valueString</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.extension.url</t>
-  </si>
-  <si>
-    <t>Condition.stage.summary.coding.extension.value[x]</t>
   </si>
   <si>
     <t>Condition.stage.summary.coding.system</t>
@@ -1780,7 +1653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN142"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1789,7 +1662,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.53515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -6743,7 +6616,7 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>52</v>
@@ -6755,25 +6628,29 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>41</v>
+        <v>313</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>41</v>
@@ -6815,7 +6692,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6833,10 +6710,10 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>41</v>
@@ -6847,7 +6724,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6858,7 +6735,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>41</v>
@@ -6867,18 +6744,20 @@
         <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6915,25 +6794,25 @@
         <v>41</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AC45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -6945,10 +6824,10 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>41</v>
@@ -6959,11 +6838,9 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>41</v>
       </c>
@@ -6981,19 +6858,21 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>99</v>
+        <v>246</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>41</v>
       </c>
@@ -7041,13 +6920,13 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>132</v>
+        <v>248</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -7059,10 +6938,10 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>41</v>
@@ -7081,7 +6960,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>52</v>
@@ -7093,19 +6972,21 @@
         <v>41</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>123</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>41</v>
       </c>
@@ -7153,7 +7034,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7171,10 +7052,10 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>127</v>
+        <v>257</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>41</v>
@@ -7189,14 +7070,14 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>41</v>
@@ -7205,21 +7086,23 @@
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>97</v>
+        <v>259</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>129</v>
+        <v>260</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>41</v>
       </c>
@@ -7255,25 +7138,25 @@
         <v>41</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
@@ -7285,10 +7168,10 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>127</v>
+        <v>266</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>41</v>
@@ -7307,7 +7190,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>52</v>
@@ -7319,27 +7202,29 @@
         <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>319</v>
+        <v>268</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>320</v>
+        <v>269</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>41</v>
@@ -7381,10 +7266,10 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>52</v>
@@ -7399,10 +7284,10 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>95</v>
+        <v>274</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>41</v>
@@ -7413,11 +7298,9 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>41</v>
       </c>
@@ -7426,7 +7309,7 @@
         <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>41</v>
@@ -7435,18 +7318,20 @@
         <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>41</v>
@@ -7471,13 +7356,13 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>41</v>
@@ -7495,49 +7380,47 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="AM50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>41</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>52</v>
@@ -7552,13 +7435,13 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>328</v>
+        <v>124</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7609,13 +7492,13 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
@@ -7630,7 +7513,7 @@
         <v>41</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>41</v>
@@ -7641,18 +7524,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>41</v>
@@ -7664,15 +7547,17 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7709,25 +7594,25 @@
         <v>41</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>41</v>
@@ -7753,11 +7638,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7773,21 +7658,23 @@
         <v>41</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7823,11 +7710,9 @@
         <v>41</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>41</v>
       </c>
@@ -7835,7 +7720,7 @@
         <v>101</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7853,10 +7738,10 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>41</v>
@@ -7867,15 +7752,17 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>52</v>
@@ -7887,27 +7774,29 @@
         <v>41</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>327</v>
+        <v>41</v>
       </c>
       <c r="R54" t="s" s="2">
         <v>41</v>
@@ -7925,13 +7814,13 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
@@ -7949,13 +7838,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7967,10 +7856,10 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>41</v>
@@ -7981,11 +7870,9 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
         <v>41</v>
       </c>
@@ -8009,10 +7896,10 @@
         <v>123</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>328</v>
+        <v>124</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8063,7 +7950,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>326</v>
+        <v>126</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8084,7 +7971,7 @@
         <v>41</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>41</v>
@@ -8095,7 +7982,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8103,10 +7990,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -8118,24 +8005,22 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>319</v>
+        <v>98</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="R56" t="s" s="2">
         <v>41</v>
@@ -8165,25 +8050,25 @@
         <v>41</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>322</v>
+        <v>132</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
@@ -8198,7 +8083,7 @@
         <v>41</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>41</v>
@@ -8209,9 +8094,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="C57" t="s" s="2">
         <v>41</v>
       </c>
@@ -8220,7 +8107,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -8232,13 +8119,13 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8289,13 +8176,13 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>326</v>
+        <v>132</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>41</v>
@@ -8310,7 +8197,7 @@
         <v>41</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8321,7 +8208,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8363,7 +8250,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>41</v>
@@ -8437,7 +8324,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8551,7 +8438,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8665,7 +8552,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8779,7 +8666,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8895,7 +8782,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9011,18 +8898,18 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>41</v>
+        <v>342</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>41</v>
@@ -9034,7 +8921,7 @@
         <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>344</v>
@@ -9042,10 +8929,10 @@
       <c r="L64" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="M64" s="2"/>
+      <c r="N64" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>41</v>
       </c>
@@ -9069,67 +8956,67 @@
         <v>41</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>291</v>
+        <v>41</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AK64" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AN64" t="s" s="2">
-        <v>351</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9145,18 +9032,20 @@
         <v>41</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>124</v>
+        <v>353</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>41</v>
@@ -9205,7 +9094,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>126</v>
+        <v>350</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9223,13 +9112,13 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>127</v>
+        <v>357</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>41</v>
+        <v>358</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9237,18 +9126,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>41</v>
@@ -9257,19 +9146,19 @@
         <v>41</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>97</v>
+        <v>360</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>129</v>
+        <v>361</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>130</v>
+        <v>362</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>113</v>
+        <v>363</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9307,25 +9196,25 @@
         <v>41</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD66" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>132</v>
+        <v>359</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>41</v>
@@ -9337,13 +9226,13 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>127</v>
+        <v>365</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -9351,7 +9240,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9362,7 +9251,7 @@
         <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>41</v>
@@ -9371,23 +9260,21 @@
         <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>220</v>
+        <v>369</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>221</v>
+        <v>370</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>41</v>
       </c>
@@ -9423,26 +9310,28 @@
         <v>41</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AB67" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>224</v>
+        <v>367</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>41</v>
@@ -9451,13 +9340,13 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -9465,11 +9354,9 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9490,20 +9377,18 @@
         <v>53</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>219</v>
+        <v>376</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>220</v>
+        <v>377</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>221</v>
+        <v>378</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9527,13 +9412,13 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>356</v>
+        <v>41</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9551,13 +9436,13 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>224</v>
+        <v>375</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>41</v>
@@ -9569,13 +9454,13 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>225</v>
+        <v>380</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>226</v>
+        <v>381</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9583,7 +9468,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9603,16 +9488,16 @@
         <v>41</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>123</v>
+        <v>384</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>124</v>
+        <v>385</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>125</v>
+        <v>386</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9663,7 +9548,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>126</v>
+        <v>383</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9681,13 +9566,13 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>127</v>
+        <v>388</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9695,7 +9580,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9706,7 +9591,7 @@
         <v>42</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>41</v>
@@ -9718,13 +9603,13 @@
         <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>97</v>
+        <v>391</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>98</v>
+        <v>392</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9763,31 +9648,31 @@
         <v>41</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AC70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>132</v>
+        <v>390</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>41</v>
@@ -9796,7 +9681,7 @@
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>41</v>
+        <v>395</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>41</v>
@@ -9807,11 +9692,9 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>41</v>
       </c>
@@ -9820,7 +9703,7 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -9832,13 +9715,13 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>309</v>
+        <v>123</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>311</v>
+        <v>125</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9889,13 +9772,13 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
@@ -9910,7 +9793,7 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9921,18 +9804,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>41</v>
@@ -9944,15 +9827,17 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>41</v>
@@ -10001,13 +9886,13 @@
         <v>41</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>41</v>
@@ -10033,11 +9918,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -10050,21 +9935,23 @@
         <v>41</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J73" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>41</v>
@@ -10101,19 +9988,19 @@
         <v>41</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>132</v>
+        <v>401</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>42</v>
@@ -10134,7 +10021,7 @@
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
@@ -10145,17 +10032,15 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>52</v>
@@ -10170,13 +10055,13 @@
         <v>41</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>315</v>
+        <v>403</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10203,13 +10088,13 @@
         <v>41</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>41</v>
+        <v>406</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>41</v>
@@ -10227,28 +10112,28 @@
         <v>41</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>132</v>
+        <v>402</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>41</v>
@@ -10259,7 +10144,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10371,7 +10256,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10485,7 +10370,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10493,10 +10378,10 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>41</v>
@@ -10505,27 +10390,29 @@
         <v>41</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>41</v>
@@ -10555,25 +10442,23 @@
         <v>41</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>322</v>
+        <v>224</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>41</v>
@@ -10585,10 +10470,10 @@
         <v>41</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10599,10 +10484,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>41</v>
@@ -10621,19 +10506,23 @@
         <v>41</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>41</v>
       </c>
@@ -10681,13 +10570,13 @@
         <v>41</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>326</v>
+        <v>224</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>41</v>
@@ -10699,10 +10588,10 @@
         <v>41</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>41</v>
@@ -10713,17 +10602,15 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>52</v>
@@ -10738,13 +10625,13 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>328</v>
+        <v>124</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10795,13 +10682,13 @@
         <v>41</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>41</v>
@@ -10816,7 +10703,7 @@
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10827,7 +10714,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10838,7 +10725,7 @@
         <v>42</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>41</v>
@@ -10850,13 +10737,13 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10895,25 +10782,25 @@
         <v>41</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>41</v>
@@ -10928,7 +10815,7 @@
         <v>41</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>41</v>
@@ -10939,11 +10826,13 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B81" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="C81" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10962,17 +10851,15 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>97</v>
+        <v>309</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>129</v>
+        <v>415</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>41</v>
@@ -11009,16 +10896,16 @@
         <v>41</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AC81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
         <v>132</v>
@@ -11042,7 +10929,7 @@
         <v>41</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>41</v>
@@ -11053,7 +10940,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11073,27 +10960,29 @@
         <v>41</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>65</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>320</v>
+        <v>231</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P82" s="2"/>
       <c r="Q82" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="R82" t="s" s="2">
         <v>41</v>
@@ -11135,10 +11024,10 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>52</v>
@@ -11153,10 +11042,10 @@
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>41</v>
@@ -11167,11 +11056,9 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
         <v>41</v>
       </c>
@@ -11189,18 +11076,20 @@
         <v>41</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>123</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>328</v>
+        <v>238</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M83" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>41</v>
@@ -11249,7 +11138,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11267,10 +11156,10 @@
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>95</v>
+        <v>243</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>41</v>
@@ -11281,7 +11170,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11301,27 +11190,27 @@
         <v>41</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>319</v>
+        <v>245</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>41</v>
@@ -11363,10 +11252,10 @@
         <v>41</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>322</v>
+        <v>248</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>52</v>
@@ -11381,10 +11270,10 @@
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>41</v>
@@ -11395,7 +11284,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11403,10 +11292,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>41</v>
@@ -11415,19 +11304,21 @@
         <v>41</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>334</v>
+        <v>123</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>335</v>
+        <v>252</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+      <c r="N85" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>41</v>
       </c>
@@ -11475,7 +11366,7 @@
         <v>41</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>326</v>
+        <v>255</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>42</v>
@@ -11493,10 +11384,10 @@
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>95</v>
+        <v>257</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
@@ -11507,7 +11398,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11515,7 +11406,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>52</v>
@@ -11530,26 +11421,26 @@
         <v>53</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>65</v>
+        <v>259</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P86" s="2"/>
       <c r="Q86" t="s" s="2">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="R86" t="s" s="2">
         <v>41</v>
@@ -11591,7 +11482,7 @@
         <v>41</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>42</v>
@@ -11609,10 +11500,10 @@
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>41</v>
@@ -11623,7 +11514,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11649,15 +11540,17 @@
         <v>123</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O87" t="s" s="2">
         <v>41</v>
       </c>
@@ -11705,7 +11598,7 @@
         <v>41</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>42</v>
@@ -11723,10 +11616,10 @@
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>41</v>
@@ -11737,7 +11630,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11745,10 +11638,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>41</v>
@@ -11757,21 +11650,19 @@
         <v>41</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>71</v>
+        <v>424</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>245</v>
+        <v>425</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>246</v>
+        <v>426</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" t="s" s="2">
-        <v>247</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>41</v>
       </c>
@@ -11819,16 +11710,16 @@
         <v>41</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>248</v>
+        <v>423</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>41</v>
@@ -11837,10 +11728,10 @@
         <v>41</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>249</v>
+        <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>41</v>
@@ -11851,7 +11742,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11859,10 +11750,10 @@
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>41</v>
@@ -11871,21 +11762,21 @@
         <v>41</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>123</v>
+        <v>391</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>252</v>
+        <v>429</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
         <v>41</v>
       </c>
@@ -11933,28 +11824,28 @@
         <v>41</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>255</v>
+        <v>428</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>41</v>
+        <v>432</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>257</v>
+        <v>433</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>41</v>
@@ -11965,7 +11856,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>372</v>
+        <v>434</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11985,23 +11876,19 @@
         <v>41</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>41</v>
       </c>
@@ -12049,7 +11936,7 @@
         <v>41</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>264</v>
+        <v>126</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>42</v>
@@ -12067,10 +11954,10 @@
         <v>41</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>266</v>
+        <v>127</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>41</v>
@@ -12081,18 +11968,18 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>41</v>
@@ -12101,23 +11988,21 @@
         <v>41</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>41</v>
       </c>
@@ -12165,13 +12050,13 @@
         <v>41</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>41</v>
@@ -12183,10 +12068,10 @@
         <v>41</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>41</v>
@@ -12197,41 +12082,41 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>376</v>
+        <v>97</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>377</v>
+        <v>111</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>41</v>
       </c>
@@ -12279,13 +12164,13 @@
         <v>41</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>41</v>
@@ -12297,13 +12182,13 @@
         <v>41</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>381</v>
+        <v>95</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>41</v>
@@ -12311,18 +12196,18 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>41</v>
@@ -12334,17 +12219,15 @@
         <v>53</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>385</v>
+        <v>144</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>41</v>
@@ -12369,13 +12252,13 @@
         <v>41</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>41</v>
+        <v>291</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>41</v>
@@ -12393,31 +12276,31 @@
         <v>41</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>41</v>
+        <v>442</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>389</v>
+        <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>41</v>
@@ -12425,7 +12308,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12436,7 +12319,7 @@
         <v>42</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>41</v>
@@ -12448,17 +12331,15 @@
         <v>53</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>41</v>
@@ -12507,16 +12388,16 @@
         <v>41</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>41</v>
+        <v>442</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>41</v>
@@ -12525,13 +12406,13 @@
         <v>41</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>41</v>
@@ -12539,7 +12420,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12550,7 +12431,7 @@
         <v>42</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>41</v>
@@ -12562,17 +12443,15 @@
         <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>41</v>
@@ -12621,16 +12500,16 @@
         <v>41</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>405</v>
+        <v>41</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>41</v>
@@ -12639,13 +12518,13 @@
         <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>41</v>
+        <v>453</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>407</v>
+        <v>41</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>41</v>
@@ -12653,7 +12532,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12673,20 +12552,18 @@
         <v>41</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>409</v>
+        <v>123</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>410</v>
+        <v>124</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>41</v>
@@ -12735,7 +12612,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>408</v>
+        <v>126</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12753,13 +12630,13 @@
         <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>413</v>
+        <v>41</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>414</v>
+        <v>127</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>415</v>
+        <v>41</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>41</v>
@@ -12767,18 +12644,18 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>41</v>
@@ -12787,18 +12664,20 @@
         <v>41</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>417</v>
+        <v>97</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>418</v>
+        <v>129</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M97" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>41</v>
@@ -12835,25 +12714,25 @@
         <v>41</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="AC97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>416</v>
+        <v>132</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>41</v>
@@ -12865,13 +12744,13 @@
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>421</v>
+        <v>127</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>422</v>
+        <v>41</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>41</v>
@@ -12879,7 +12758,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12899,16 +12778,16 @@
         <v>41</v>
       </c>
       <c r="I98" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12959,7 +12838,7 @@
         <v>41</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>42</v>
@@ -12971,16 +12850,16 @@
         <v>41</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>41</v>
@@ -12991,7 +12870,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13011,16 +12890,16 @@
         <v>41</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>123</v>
+        <v>376</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>124</v>
+        <v>464</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>125</v>
+        <v>465</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13071,7 +12950,7 @@
         <v>41</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>126</v>
+        <v>466</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>42</v>
@@ -13089,10 +12968,10 @@
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>127</v>
+        <v>467</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>41</v>
@@ -13103,18 +12982,18 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>41</v>
@@ -13126,17 +13005,15 @@
         <v>41</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>129</v>
+        <v>469</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
         <v>41</v>
@@ -13185,13 +13062,13 @@
         <v>41</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>132</v>
+        <v>471</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>41</v>
@@ -13203,4782 +13080,20 @@
         <v>41</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>127</v>
+        <v>472</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AB105" s="2"/>
-      <c r="AC105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="C109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N120" s="2"/>
-      <c r="O120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N122" s="2"/>
-      <c r="O122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N125" s="2"/>
-      <c r="O125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN125" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M126" s="2"/>
-      <c r="N126" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="127" hidden="true">
-      <c r="A127" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B127" s="2"/>
-      <c r="C127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F127" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I127" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J127" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K127" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M127" s="2"/>
-      <c r="N127" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P127" s="2"/>
-      <c r="Q127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF127" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG127" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK127" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AL127" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AM127" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN127" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="128" hidden="true">
-      <c r="A128" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B128" s="2"/>
-      <c r="C128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D128" s="2"/>
-      <c r="E128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F128" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I128" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J128" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P128" s="2"/>
-      <c r="Q128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG128" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK128" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AL128" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="AM128" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN128" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="129" hidden="true">
-      <c r="A129" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F129" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I129" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J129" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K129" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P129" s="2"/>
-      <c r="Q129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG129" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK129" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AL129" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AM129" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN129" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="130" hidden="true">
-      <c r="A130" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D130" s="2"/>
-      <c r="E130" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J130" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="K130" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P130" s="2"/>
-      <c r="Q130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF130" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG130" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH130" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AI130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL130" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AM130" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN130" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" hidden="true">
-      <c r="A131" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B131" s="2"/>
-      <c r="C131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F131" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J131" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="K131" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N131" s="2"/>
-      <c r="O131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P131" s="2"/>
-      <c r="Q131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AJ131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AM131" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN131" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="132" hidden="true">
-      <c r="A132" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B132" s="2"/>
-      <c r="C132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F132" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J132" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P132" s="2"/>
-      <c r="Q132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE132" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF132" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG132" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN132" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="133" hidden="true">
-      <c r="A133" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B133" s="2"/>
-      <c r="C133" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F133" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J133" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K133" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M133" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P133" s="2"/>
-      <c r="Q133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL133" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM133" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN133" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B134" s="2"/>
-      <c r="C134" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F134" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N134" s="2"/>
-      <c r="O134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P134" s="2"/>
-      <c r="Q134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B135" s="2"/>
-      <c r="C135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D135" s="2"/>
-      <c r="E135" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F135" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P135" s="2"/>
-      <c r="Q135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" hidden="true">
-      <c r="A136" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B136" s="2"/>
-      <c r="C136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F136" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I136" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J136" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="K136" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P136" s="2"/>
-      <c r="Q136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE136" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF136" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG136" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH136" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AI136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK136" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL136" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AM136" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AN136" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B137" s="2"/>
-      <c r="C137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F137" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P137" s="2"/>
-      <c r="Q137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F138" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P138" s="2"/>
-      <c r="Q138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F139" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P139" s="2"/>
-      <c r="Q139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F140" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="M140" s="2"/>
-      <c r="N140" s="2"/>
-      <c r="O140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P140" s="2"/>
-      <c r="Q140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" hidden="true">
-      <c r="A141" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN142" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN142">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17988,7 +13103,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI141">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
